--- a/biology/Médecine/Aponévrose_épicrânienne/Aponévrose_épicrânienne.xlsx
+++ b/biology/Médecine/Aponévrose_épicrânienne/Aponévrose_épicrânienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose_%C3%A9picr%C3%A2nienne</t>
+          <t>Aponévrose_épicrânienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aponévrose épicrânienne ou  galéa aponévrotique est une aponévrose recouvrant la partie supérieure du crâne chez l'homme et de nombreux autres animaux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose_%C3%A9picr%C3%A2nienne</t>
+          <t>Aponévrose_épicrânienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'homme, l'aponévrose épicrânienne provient de la protubérance occipitale externe et des lignes nuchales suprêmes de l'os occipital.
 Elle fusionne à l'avant avec le muscle occipito-frontal et forme vers l'avant une étroite prolongation médiane jusqu'à la base nasale.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose_%C3%A9picr%C3%A2nienne</t>
+          <t>Aponévrose_épicrânienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hémorragie sous-galéale est définie comme un saignement entre l'aponévrose épicrânienne et le crâne. Un traitement conservateur est appliqué car le risque de dommages aux structures environnantes est faible.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose_%C3%A9picr%C3%A2nienne</t>
+          <t>Aponévrose_épicrânienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aponévrose épicrânienne est également connue sous le nom de galéa aponévrotique ou d'épicrâne.
 </t>
